--- a/mc/indicators/xl/GDPPPP.xlsx
+++ b/mc/indicators/xl/GDPPPP.xlsx
@@ -8511,103 +8511,103 @@
         <v>107</v>
       </c>
       <c r="B19" s="1">
-        <v>19474</v>
+        <v>19740.6</v>
       </c>
       <c r="C19" s="1">
-        <v>20129.5</v>
+        <v>20527.5</v>
       </c>
       <c r="D19" s="1">
-        <v>20691.2</v>
+        <v>21222.8</v>
       </c>
       <c r="E19" s="1">
-        <v>21178.4</v>
+        <v>21759.2</v>
       </c>
       <c r="F19" s="1">
-        <v>22184.7</v>
+        <v>22815.4</v>
       </c>
       <c r="G19" s="1">
-        <v>22987.1</v>
+        <v>23638.3</v>
       </c>
       <c r="H19" s="1">
-        <v>23955</v>
+        <v>24647.6</v>
       </c>
       <c r="I19" s="1">
-        <v>25027.9</v>
+        <v>25770</v>
       </c>
       <c r="J19" s="1">
-        <v>25925.4</v>
+        <v>26598</v>
       </c>
       <c r="K19" s="1">
-        <v>27042.9</v>
+        <v>27801.7</v>
       </c>
       <c r="L19" s="1">
-        <v>28586.1</v>
+        <v>29410.3</v>
       </c>
       <c r="M19" s="1">
-        <v>29539.9</v>
+        <v>30361.3</v>
       </c>
       <c r="N19" s="1">
-        <v>30287.8</v>
+        <v>31155.6</v>
       </c>
       <c r="O19" s="1">
-        <v>31339.4</v>
+        <v>32224.6</v>
       </c>
       <c r="P19" s="1">
-        <v>33012.5</v>
+        <v>33965.9</v>
       </c>
       <c r="Q19" s="1">
-        <v>34782.3</v>
+        <v>35798.5</v>
       </c>
       <c r="R19" s="1">
-        <v>36694.5</v>
+        <v>37763.6</v>
       </c>
       <c r="S19" s="1">
-        <v>38399.6</v>
+        <v>39536.3</v>
       </c>
       <c r="T19" s="1">
-        <v>38996.2</v>
+        <v>40086.5</v>
       </c>
       <c r="U19" s="1">
-        <v>37679.8</v>
+        <v>38774.3</v>
       </c>
       <c r="V19" s="1">
-        <v>38933</v>
+        <v>40220.2</v>
       </c>
       <c r="W19" s="1">
-        <v>40169.6</v>
+        <v>41521.3</v>
       </c>
       <c r="X19" s="1">
-        <v>41157.1</v>
+        <v>42565.8</v>
       </c>
       <c r="Y19" s="1">
-        <v>42142.9</v>
+        <v>43618.5</v>
       </c>
       <c r="Z19" s="1">
-        <v>43569.1</v>
+        <v>45096.3</v>
       </c>
       <c r="AA19" s="1">
-        <v>44851.9</v>
+        <v>46343.4</v>
       </c>
       <c r="AB19" s="1">
-        <v>45967</v>
+        <v>47458.8</v>
       </c>
       <c r="AC19" s="1">
-        <v>47597.4</v>
+        <v>49111.3</v>
       </c>
       <c r="AD19" s="1">
-        <v>49331.4</v>
+        <v>50871.4</v>
       </c>
       <c r="AE19" s="1">
-        <v>51100.4</v>
+        <v>52683.5</v>
       </c>
       <c r="AF19" s="1">
-        <v>52855.6</v>
+        <v>54492.3</v>
       </c>
       <c r="AG19" s="1">
-        <v>54662.3</v>
+        <v>56356.7</v>
       </c>
       <c r="AH19" s="1">
-        <v>56425</v>
+        <v>58178.8</v>
       </c>
     </row>
     <row r="20" spans="1:34">
